--- a/Documentation/Items Plan.xlsx
+++ b/Documentation/Items Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcad\Documents\Unity Projects\ZomAlpha\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1553D79-9727-44F1-A2BA-4D1538CED868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490FC8BA-149C-4CE3-BF9D-64C855786B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47CEDA3C-C018-4AAD-BFF0-34CDEDCB90F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>Pipebomb</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Pharmaceutical that drastically reduces zom infection.</t>
   </si>
   <si>
-    <t>lootBiome</t>
-  </si>
-  <si>
     <t>lootType</t>
   </si>
   <si>
@@ -366,6 +363,15 @@
   </si>
   <si>
     <t>countryside</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>lootBiomes</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8BAF4E-4DC2-4D0C-928E-239E3819F325}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,34 +755,34 @@
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -906,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -958,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1076,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1444,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1484,13 +1490,13 @@
         <v>2.5</v>
       </c>
       <c r="F31" s="1">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1516,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1542,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1568,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1594,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1672,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,7 +1730,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1802,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1828,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1851,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1874,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1920,11 +1926,25 @@
         <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
